--- a/bots/crawl_ch/output/electronics_2022-07-13.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-13.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2676,131 +2676,131 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4905484</t>
+          <t>6508223</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück</t>
+          <t>satrap Venti WS Standventilator</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2.98/1ST</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
+          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6508223</t>
+          <t>4905484</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator</t>
+          <t>Alkaline Batterie LR20/D 2 Stück</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-venti-ws-standventilator/p/6508223</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr20d-2-stueck/p/4905484</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2.98/1ST</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>satrap Venti WS Standventilator 50% Aktion 29.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR20/D 2 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -2871,39 +2871,41 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>6284849</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Trend Ladekabel Lightning 3m</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-ladekabel-lightning-3m/p/6284849</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2917,46 +2919,44 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Trend Ladekabel Lightning 3m 50% Aktion 11.45 Schweizer Franken statt 22.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6284849</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Trend Ladekabel Lightning 3m</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-ladekabel-lightning-3m/p/6284849</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2970,12 +2970,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Trend Ladekabel Lightning 3m 50% Aktion 11.45 Schweizer Franken statt 22.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3599,165 +3599,165 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>6848736</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Sony</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6848736</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz)</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/sony-wf-c500b-in-ear-bluetooth-50-schwarz/p/6848736</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sony</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3766,17 +3766,17 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>SONY WF-C500B (In-Ear, Bluetooth 5.0, Schwarz) 50% Aktion 39.95 Schweizer Franken statt 79.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -3900,75 +3900,95 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>24ST</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.87/1ST</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3978,12 +3998,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3992,117 +4012,101 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4110,162 +4114,178 @@
           <t>9.95</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>349.50</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -4275,12 +4295,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>349.50</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -4289,34 +4309,34 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4326,12 +4346,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -4340,117 +4360,97 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>3.74/1ST</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4459,12 +4459,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>3.74/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4484,39 +4484,39 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>24ST</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4525,17 +4525,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4555,60 +4555,58 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4618,7 +4616,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4633,29 +4631,29 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4669,17 +4667,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4689,7 +4687,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4699,60 +4697,60 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4762,7 +4760,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4777,97 +4775,115 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6872591</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>239.50</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6872591</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bosch</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>239.50</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4876,49 +4892,51 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4927,34 +4945,34 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6689619</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4964,7 +4982,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4978,34 +4996,34 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31 28% Aktion 99.90 Schweizer Franken statt 139.00 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>6689619</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Philips Dampfstation HI5919/31</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -5015,12 +5033,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5029,51 +5047,49 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Philips Dampfstation HI5919/31 28% Aktion 99.90 Schweizer Franken statt 139.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>7</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5082,40 +5098,42 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5124,7 +5142,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5138,29 +5156,29 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -5175,7 +5193,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5184,34 +5202,34 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5226,7 +5244,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5240,29 +5258,29 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6634107</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-bluetooth-lautsprecher-e100-gruen/p/6634107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5272,12 +5290,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5286,34 +5304,34 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Trend Bluetooth Lautsprecher E100 Grün 50% Aktion 19.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6634107</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend Bluetooth Lautsprecher E100 Grün</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-bluetooth-lautsprecher-e100-gruen/p/6634107</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5337,42 +5355,40 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend Bluetooth Lautsprecher E100 Grün 50% Aktion 19.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5381,7 +5397,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5395,35 +5411,37 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5432,7 +5450,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5446,29 +5464,29 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -5483,7 +5501,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5497,37 +5515,35 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>4</v>
-      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5536,7 +5552,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5550,105 +5566,87 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5657,17 +5655,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5677,7 +5675,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5687,39 +5685,39 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5733,12 +5731,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5748,7 +5746,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5758,34 +5756,34 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5829,39 +5827,39 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5875,12 +5873,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5890,7 +5888,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5900,39 +5898,39 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5946,12 +5944,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5961,7 +5959,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5971,44 +5969,46 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -6017,12 +6017,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6042,17 +6042,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:41</t>
+          <t>2022-07-13 20:57:39</t>
         </is>
       </c>
     </row>
